--- a/manufacturing/BOMs/MOBO_BOM_REV_B.xlsx
+++ b/manufacturing/BOMs/MOBO_BOM_REV_B.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper Grant\Documents\EAGLE\projects\CubeSat-ADCS-Hardware\manufacturing\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3B8FF6-EAA4-45DD-8B35-0031734FF679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74A046-39C5-4C70-994A-6D2C6E0018CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="1056" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1248" yWindow="1248" windowWidth="11604" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCS Motherboard" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'ADCS Motherboard'!$B$1:$J$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'ADCS Motherboard'!$B$1:$J$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="259">
   <si>
     <t>Qty</t>
   </si>
@@ -645,12 +645,213 @@
   <si>
     <t>In stock - 90000</t>
   </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>MSP430F5529IPN</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>80-LQFP</t>
+  </si>
+  <si>
+    <t>CPUXV2 series Microcontroller IC 16-Bit 25MHz 128KB (128K x 8) FLASH 80-LQFP (12x12)</t>
+  </si>
+  <si>
+    <t>296-25427-ND</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=http%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fmsp430f5529</t>
+  </si>
+  <si>
+    <t>DO NOT INSTALL</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>BSR802NL6327HTSA1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>N-Channel 20 V 3.7A (Ta) 500mW (Ta) Surface Mount PG-SC59-3</t>
+  </si>
+  <si>
+    <t>BSR802NL6327HTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/BSR802N_Rev2.1.pdf?folderId=db3a3043156fd573011622e10b5c1f67&amp;fileId=db3a30431b0626df011b129302297bc1</t>
+  </si>
+  <si>
+    <t>Omron Electronics Inc-EMC Div</t>
+  </si>
+  <si>
+    <t>B3F-1020</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Through Hole</t>
+  </si>
+  <si>
+    <t>SW402-ND</t>
+  </si>
+  <si>
+    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3f.pdf</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>TSV991AILT</t>
+  </si>
+  <si>
+    <t>U2, U4, U10</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 1 Circuit Rail-to-Rail SOT-23-5</t>
+  </si>
+  <si>
+    <t>497-5833-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.st.com/content/ccc/resource/technical/document/datasheet/d8/e3/a5/aa/8f/d7/42/67/CD00144611.pdf/files/CD00144611.pdf/jcr:content/translations/en.CD00144611.pdf</t>
+  </si>
+  <si>
+    <t>ADS7841E/2K5</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ADS7841E_2K5</t>
+  </si>
+  <si>
+    <t>16-SOP</t>
+  </si>
+  <si>
+    <t>12 Bit Analog to Digital Converter 4 Input 1 SAR 16-SSOP</t>
+  </si>
+  <si>
+    <t>296-25900-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=http%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fads7841</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>DMC4050SSDQ-13</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>8-SOIC</t>
+  </si>
+  <si>
+    <t>Mosfet Array N and P-Channel Complementary 40V 5.3A 1.8W Surface Mount 8-SO</t>
+  </si>
+  <si>
+    <t>DMC4050SSDQ-13DICT-ND</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Diodes%20PDFs/DMC4050SSDQ_Web.pdf</t>
+  </si>
+  <si>
+    <t>Bosch Sensortec</t>
+  </si>
+  <si>
+    <t>BMX160</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>14-QFN</t>
+  </si>
+  <si>
+    <t>Accelerometer, Gyroscope, 9 Axis Sensor I²C, SPI Output</t>
+  </si>
+  <si>
+    <t>828-1087-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.bosch-sensortec.com/media/boschsensortec/downloads/datasheets/bst-bmx160-ds0001.pdf</t>
+  </si>
+  <si>
+    <t>Micro Crystal AG</t>
+  </si>
+  <si>
+    <t>±20ppm Crystal 7pF Cylindrical Can, Radial</t>
+  </si>
+  <si>
+    <t>Y1, Y3</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>MS3V-T1R</t>
+  </si>
+  <si>
+    <t>2195-MS3V-T1R-32.768KHZ-7PF-20PPM-TA-QC-AUCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.microcrystal.com/fileadmin/Media/Products/32kHz/Datasheet/MS3V-T1R.pdf</t>
+  </si>
+  <si>
+    <t>DO NOT INSTALL - Only Y1 populated by DSS post-fabrication</t>
+  </si>
+  <si>
+    <t>CSTCR4M00G55-R0</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>4 MHz Ceramic Resonator Built in Capacitor 39 pF - 60 Ohms -20°C ~ 80°C Surface Mount</t>
+  </si>
+  <si>
+    <t>490-5996-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/~/media/webrenewal/support/library/catalog/products/timingdevice/ceralock/p16e.ashx</t>
+  </si>
+  <si>
+    <t>Cannibalize</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Out of stock</t>
+  </si>
+  <si>
+    <t>Out of stock but generic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +905,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -744,7 +953,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -805,13 +1014,36 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -881,8 +1113,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{F5E295C6-B411-484B-AD15-6947FE126982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="17" unboundColumnsLeft="1" unboundColumnsRight="3">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="18" unboundColumnsLeft="1" unboundColumnsRight="4">
+    <queryTableFields count="14">
       <queryTableField id="9" dataBound="0" tableColumnId="9"/>
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
       <queryTableField id="12" dataBound="0" tableColumnId="11"/>
@@ -896,6 +1128,7 @@
       <queryTableField id="14" dataBound="0" tableColumnId="12"/>
       <queryTableField id="15" dataBound="0" tableColumnId="3"/>
       <queryTableField id="16" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="17" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Device"/>
@@ -905,25 +1138,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDD49D9B-58AE-4514-B517-3E2E0F29056B}" name="ADCS_Motherboard" displayName="ADCS_Motherboard" ref="A1:M49" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M49" xr:uid="{FDD49D9B-58AE-4514-B517-3E2E0F29056B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K39">
-    <sortCondition ref="F1:F49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDD49D9B-58AE-4514-B517-3E2E0F29056B}" name="ADCS_Motherboard" displayName="ADCS_Motherboard" ref="A1:N47" tableType="queryTable" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N47" xr:uid="{FDD49D9B-58AE-4514-B517-3E2E0F29056B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K37">
+    <sortCondition ref="F1:F47"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="9" xr3:uid="{0CF9DE96-77D1-4331-A233-085FD408A606}" uniqueName="9" name="Item" queryTableFieldId="9" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{3CE4BD86-C114-4C21-A0E5-32A18E257F45}" uniqueName="1" name="Qty" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{A4730357-B3E2-4CAE-A8D9-EC37B6542BE1}" uniqueName="11" name="Manufacturer " queryTableFieldId="12" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{F2E57887-4912-4D54-A000-8F129345246B}" uniqueName="10" name="MPN" queryTableFieldId="11" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{14645470-4104-47E1-B694-0F004D4FD67A}" uniqueName="5" name="REF DES" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F8938713-A780-4425-80A6-30411E13860C}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F206023C-4218-49E8-849D-BAA1E7B78684}" uniqueName="4" name="Footprint" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{CACBCD08-F139-42C2-AD93-4EBF9AE149CB}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{8050B880-71D4-4379-AE88-6982F15FDAD9}" uniqueName="7" name="Digikey PN" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{85AA338D-BA37-465A-8492-00FD8F7CE34B}" uniqueName="8" name="Datasheet URL" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{9A33A48D-1071-430B-93B6-36838968514A}" uniqueName="12" name="Notes" queryTableFieldId="14" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{77E9A87F-6831-4277-BE5A-62CD55234E9C}" uniqueName="3" name="Column1" queryTableFieldId="15" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{1CD38892-27D3-42DF-8AC7-DE480B2391CD}" uniqueName="13" name="In Stock" queryTableFieldId="16" dataDxfId="0"/>
+  <tableColumns count="14">
+    <tableColumn id="9" xr3:uid="{0CF9DE96-77D1-4331-A233-085FD408A606}" uniqueName="9" name="Item" queryTableFieldId="9" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{3CE4BD86-C114-4C21-A0E5-32A18E257F45}" uniqueName="1" name="Qty" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{A4730357-B3E2-4CAE-A8D9-EC37B6542BE1}" uniqueName="11" name="Manufacturer " queryTableFieldId="12" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{F2E57887-4912-4D54-A000-8F129345246B}" uniqueName="10" name="MPN" queryTableFieldId="11" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{14645470-4104-47E1-B694-0F004D4FD67A}" uniqueName="5" name="REF DES" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F8938713-A780-4425-80A6-30411E13860C}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F206023C-4218-49E8-849D-BAA1E7B78684}" uniqueName="4" name="Footprint" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{CACBCD08-F139-42C2-AD93-4EBF9AE149CB}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{8050B880-71D4-4379-AE88-6982F15FDAD9}" uniqueName="7" name="Digikey PN" queryTableFieldId="7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{85AA338D-BA37-465A-8492-00FD8F7CE34B}" uniqueName="8" name="Datasheet URL" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{9A33A48D-1071-430B-93B6-36838968514A}" uniqueName="12" name="Notes" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{77E9A87F-6831-4277-BE5A-62CD55234E9C}" uniqueName="3" name="Column1" queryTableFieldId="15" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{1CD38892-27D3-42DF-8AC7-DE480B2391CD}" uniqueName="13" name="In Stock" queryTableFieldId="16" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{72A32051-2B81-42DB-8160-243F23E636F3}" uniqueName="14" name="Column2" queryTableFieldId="17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1192,18 +1426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225E20A3-F56F-4146-B668-7E3E11AAD274}">
-  <dimension ref="A1:BF50"/>
+  <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="34.5546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.5546875" style="4" customWidth="1"/>
@@ -1212,7 +1446,8 @@
     <col min="10" max="10" width="26" style="4" customWidth="1"/>
     <col min="11" max="11" width="50.109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="4"/>
-    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
+    <col min="14" max="58" width="9.109375" customWidth="1"/>
     <col min="59" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -1256,6 +1491,9 @@
       <c r="M1" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="2" spans="1:58" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
@@ -1295,7 +1533,7 @@
       <c r="M2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
@@ -1379,6 +1617,7 @@
       <c r="M3" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1418,6 +1657,7 @@
       <c r="M4" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1457,6 +1697,7 @@
       <c r="M5" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:58" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
@@ -1494,7 +1735,7 @@
       <c r="M6" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
@@ -1578,7 +1819,7 @@
       <c r="M7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -1662,6 +1903,7 @@
       <c r="M8" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
@@ -1700,7 +1942,7 @@
       <c r="M9" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -1784,6 +2026,7 @@
       <c r="M10" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:58" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
@@ -1823,7 +2066,7 @@
       <c r="M11" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="N11" s="16"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -1907,6 +2150,7 @@
       <c r="M12" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1946,6 +2190,7 @@
       <c r="M13" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:58" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
@@ -1983,7 +2228,7 @@
       <c r="M14" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -2064,6 +2309,7 @@
       <c r="M15" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -2103,6 +2349,7 @@
       <c r="M16" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -2142,6 +2389,7 @@
       <c r="M17" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:58" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
@@ -2181,7 +2429,7 @@
       <c r="M18" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N18" s="16"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
@@ -2265,6 +2513,7 @@
       <c r="M19" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2304,6 +2553,7 @@
       <c r="M20" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
@@ -2343,7 +2593,7 @@
       <c r="M21" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -2427,6 +2677,7 @@
       <c r="M22" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:58" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
@@ -2466,7 +2717,7 @@
       <c r="M23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="16"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
@@ -2550,6 +2801,7 @@
       <c r="M24" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -2589,6 +2841,7 @@
       <c r="M25" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -2628,6 +2881,7 @@
       <c r="M26" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -2667,6 +2921,7 @@
       <c r="M27" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -2706,45 +2961,441 @@
       <c r="M28" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="5:11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:58" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>49</v>
+      </c>
+      <c r="B29" s="24">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>43</v>
+      </c>
+      <c r="B30" s="24">
+        <v>1</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+    </row>
+    <row r="31" spans="1:58" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
+        <v>50</v>
+      </c>
+      <c r="B31" s="24">
+        <v>1</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="1:58" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>52</v>
+      </c>
+      <c r="B32" s="24">
+        <v>3</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="N32" s="25"/>
+    </row>
+    <row r="33" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
+        <v>39</v>
+      </c>
+      <c r="B33" s="24">
+        <v>1</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>46</v>
+      </c>
+      <c r="B34" s="24">
+        <v>1</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>41</v>
+      </c>
+      <c r="B35" s="24">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>30</v>
+      </c>
+      <c r="B36" s="24">
+        <v>2</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>45</v>
+      </c>
+      <c r="B37" s="24">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/manufacturing/BOMs/MOBO_BOM_REV_B.xlsx
+++ b/manufacturing/BOMs/MOBO_BOM_REV_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper Grant\Documents\EAGLE\projects\CubeSat-ADCS-Hardware\manufacturing\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74A046-39C5-4C70-994A-6D2C6E0018CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133A0B2-8DFF-499B-89CF-B7AB74D5F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="1248" windowWidth="11604" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="3315" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCS Motherboard" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="262">
   <si>
     <t>Qty</t>
   </si>
@@ -835,16 +835,25 @@
     <t>https://www.murata.com/~/media/webrenewal/support/library/catalog/products/timingdevice/ceralock/p16e.ashx</t>
   </si>
   <si>
-    <t>Cannibalize</t>
-  </si>
-  <si>
     <t>Column2</t>
   </si>
   <si>
-    <t>Out of stock</t>
-  </si>
-  <si>
-    <t>Out of stock but generic</t>
+    <t>On MOBO</t>
+  </si>
+  <si>
+    <t>In stock 1 on MOBO</t>
+  </si>
+  <si>
+    <t>On Breakout Boards</t>
+  </si>
+  <si>
+    <t>In stock on MOBO</t>
+  </si>
+  <si>
+    <t>Has to do  with magnetometer we are not using</t>
+  </si>
+  <si>
+    <t>Out, we have LM3271</t>
   </si>
 </sst>
 </file>
@@ -1428,30 +1437,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225E20A3-F56F-4146-B668-7E3E11AAD274}">
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="I28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="40" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="26" style="4" customWidth="1"/>
-    <col min="11" max="11" width="50.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="4"/>
-    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
-    <col min="14" max="58" width="9.109375" customWidth="1"/>
-    <col min="59" max="16384" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="50.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="4"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
+    <col min="14" max="58" width="9.140625" customWidth="1"/>
+    <col min="59" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1492,10 +1501,10 @@
         <v>159</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>7</v>
       </c>
@@ -1579,7 +1588,7 @@
       <c r="BE2" s="16"/>
       <c r="BF2" s="16"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>8</v>
       </c>
@@ -1619,7 +1628,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -1659,7 +1668,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>11</v>
       </c>
@@ -1699,7 +1708,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:58" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>17</v>
       </c>
@@ -1781,7 +1790,7 @@
       <c r="BE6" s="16"/>
       <c r="BF6" s="16"/>
     </row>
-    <row r="7" spans="1:58" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>12</v>
       </c>
@@ -1865,7 +1874,7 @@
       <c r="BE7" s="12"/>
       <c r="BF7" s="12"/>
     </row>
-    <row r="8" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>14</v>
       </c>
@@ -1905,7 +1914,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>15</v>
       </c>
@@ -1988,7 +1997,7 @@
       <c r="BE9" s="16"/>
       <c r="BF9" s="16"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>18</v>
       </c>
@@ -2028,7 +2037,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:58" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>21</v>
       </c>
@@ -2112,7 +2121,7 @@
       <c r="BE11" s="16"/>
       <c r="BF11" s="16"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>19</v>
       </c>
@@ -2152,7 +2161,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>22</v>
       </c>
@@ -2192,7 +2201,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:58" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>44</v>
       </c>
@@ -2274,7 +2283,7 @@
       <c r="BE14" s="16"/>
       <c r="BF14" s="16"/>
     </row>
-    <row r="15" spans="1:58" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>51</v>
       </c>
@@ -2311,7 +2320,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>23</v>
       </c>
@@ -2351,7 +2360,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>20</v>
       </c>
@@ -2391,7 +2400,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:58" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>24</v>
       </c>
@@ -2475,7 +2484,7 @@
       <c r="BE18" s="16"/>
       <c r="BF18" s="16"/>
     </row>
-    <row r="19" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>25</v>
       </c>
@@ -2515,7 +2524,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>26</v>
       </c>
@@ -2555,7 +2564,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>27</v>
       </c>
@@ -2639,7 +2648,7 @@
       <c r="BE21" s="12"/>
       <c r="BF21" s="12"/>
     </row>
-    <row r="22" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>28</v>
       </c>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:58" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>29</v>
       </c>
@@ -2763,7 +2772,7 @@
       <c r="BE23" s="16"/>
       <c r="BF23" s="16"/>
     </row>
-    <row r="24" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>31</v>
       </c>
@@ -2803,7 +2812,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>33</v>
       </c>
@@ -2843,7 +2852,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>34</v>
       </c>
@@ -2883,7 +2892,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>35</v>
       </c>
@@ -2923,7 +2932,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>37</v>
       </c>
@@ -2963,7 +2972,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:58" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>49</v>
       </c>
@@ -2998,11 +3007,11 @@
         <v>199</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>199</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="4"/>
@@ -3085,7 +3094,7 @@
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
     </row>
-    <row r="31" spans="1:58" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>50</v>
       </c>
@@ -3120,11 +3129,11 @@
         <v>199</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N31" s="25"/>
     </row>
-    <row r="32" spans="1:58" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>52</v>
       </c>
@@ -3159,11 +3168,11 @@
         <v>199</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>39</v>
       </c>
@@ -3198,11 +3207,11 @@
         <v>199</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>46</v>
       </c>
@@ -3237,11 +3246,11 @@
         <v>199</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N34" s="25"/>
     </row>
-    <row r="35" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>41</v>
       </c>
@@ -3276,11 +3285,11 @@
         <v>199</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N35" s="25"/>
     </row>
-    <row r="36" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>30</v>
       </c>
@@ -3315,11 +3324,11 @@
         <v>248</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>45</v>
       </c>
@@ -3354,41 +3363,41 @@
         <v>199</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="N37" s="25"/>
     </row>
-    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3414,6 +3423,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC4E1BBA5FCCEB42ABD3634045D29A81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bf4d24f53fb107b128950c28fbbfc974">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="3cbc6864-9616-4f23-a3de-0b0bc913aa47" xmlns:ns4="58fc6efc-9528-4b9e-8e6e-097d923d9453" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f94ed0a9479799625af38848f7b390c5" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3647,24 +3674,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB26E228-5AE1-4A74-AB9E-2E4E2CBC6CC1}">
   <ds:schemaRefs>
@@ -3674,6 +3683,32 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B6DDF0B-F4A2-47C3-92F8-1E6A596D5FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="58fc6efc-9528-4b9e-8e6e-097d923d9453"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3cbc6864-9616-4f23-a3de-0b0bc913aa47"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE9519B4-09A7-4FE0-B4B1-2EC81C579A14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D326F609-8F99-4617-B137-67D4E3A3DC21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3691,30 +3726,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE9519B4-09A7-4FE0-B4B1-2EC81C579A14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B6DDF0B-F4A2-47C3-92F8-1E6A596D5FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="58fc6efc-9528-4b9e-8e6e-097d923d9453"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="3cbc6864-9616-4f23-a3de-0b0bc913aa47"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>